--- a/Outputs/Main/SDID_Results_Admitted_Pathways.xlsx
+++ b/Outputs/Main/SDID_Results_Admitted_Pathways.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>DepVar</t>
   </si>
@@ -46,43 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="19">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -132,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,74 +167,11 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -305,42 +206,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,18 +249,18 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0341265</v>
+        <v>0.0369453</v>
       </c>
       <c r="C2">
-        <v>0.0057612</v>
-      </c>
-      <c r="D2" s="10">
+        <v>0.0171614</v>
+      </c>
+      <c r="D2" s="1">
         <f>B2 - (1.96 * C2)</f>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="2">
         <f>B2 + (1.96 * C2)</f>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="3">
         <f>IF(AND(D2 &gt; 0, E2 &gt; 0), 1, IF(AND(D2 &lt; 0, E2 &lt; 0), 1, 0))</f>
       </c>
     </row>
@@ -404,18 +269,18 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0232469</v>
+        <v>-0.0234699</v>
       </c>
       <c r="C3">
-        <v>0.009294500000000001</v>
-      </c>
-      <c r="D3" s="13">
+        <v>0.0184055</v>
+      </c>
+      <c r="D3" s="4">
         <f>B3 - (1.96 * C3)</f>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="5">
         <f>B3 + (1.96 * C3)</f>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="6">
         <f>IF(AND(D3 &gt; 0, E3 &gt; 0), 1, IF(AND(D3 &lt; 0, E3 &lt; 0), 1, 0))</f>
       </c>
     </row>
@@ -424,18 +289,18 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0145061</v>
+        <v>-0.0146427</v>
       </c>
       <c r="C4">
-        <v>0.0058903</v>
-      </c>
-      <c r="D4" s="16">
+        <v>0.0126868</v>
+      </c>
+      <c r="D4" s="7">
         <f>B4 - (1.96 * C4)</f>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="8">
         <f>B4 + (1.96 * C4)</f>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="9">
         <f>IF(AND(D4 &gt; 0, E4 &gt; 0), 1, IF(AND(D4 &lt; 0, E4 &lt; 0), 1, 0))</f>
       </c>
     </row>
